--- a/data/Output/ぐるめ屋/店舗情報まとめ.xlsx
+++ b/data/Output/ぐるめ屋/店舗情報まとめ.xlsx
@@ -1827,7 +1827,7 @@
         <v>4677.459165154265</v>
       </c>
       <c r="H2" t="n">
-        <v>1288640</v>
+        <v>2338.729582577133</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1853,7 +1853,7 @@
         <v>5631.622222222222</v>
       </c>
       <c r="H3" t="n">
-        <v>506846</v>
+        <v>1877.207407407407</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1879,7 +1879,7 @@
         <v>7474.102857142857</v>
       </c>
       <c r="H4" t="n">
-        <v>326992</v>
+        <v>1868.525714285714</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1905,7 +1905,7 @@
         <v>8429.931818181818</v>
       </c>
       <c r="H5" t="n">
-        <v>148366.8</v>
+        <v>1685.986363636364</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1931,7 +1931,7 @@
         <v>10763.79591836735</v>
       </c>
       <c r="H6" t="n">
-        <v>87904.33333333333</v>
+        <v>1793.965986394558</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1981,7 +1981,7 @@
         <v>11495.55555555555</v>
       </c>
       <c r="H8" t="n">
-        <v>44340</v>
+        <v>1642.222222222222</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2007,7 +2007,7 @@
         <v>19184.45833333333</v>
       </c>
       <c r="H9" t="n">
-        <v>57553.375</v>
+        <v>2398.057291666667</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2033,7 +2033,7 @@
         <v>3010.421052631579</v>
       </c>
       <c r="H10" t="n">
-        <v>28599</v>
+        <v>1505.210526315789</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2059,7 +2059,7 @@
         <v>23771.76470588235</v>
       </c>
       <c r="H11" t="n">
-        <v>40412</v>
+        <v>2377.176470588235</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2085,7 +2085,7 @@
         <v>19369.23076923077</v>
       </c>
       <c r="H12" t="n">
-        <v>22890.90909090909</v>
+        <v>1760.839160839161</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2111,7 +2111,7 @@
         <v>17175.33333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>22900.44444444445</v>
+        <v>1908.37037037037</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2137,7 +2137,7 @@
         <v>16935</v>
       </c>
       <c r="H14" t="n">
-        <v>9677.142857142857</v>
+        <v>1209.642857142857</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2163,7 +2163,7 @@
         <v>3254.285714285714</v>
       </c>
       <c r="H15" t="n">
-        <v>22780</v>
+        <v>3254.285714285714</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2189,7 +2189,7 @@
         <v>22548.66666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>11274.33333333333</v>
+        <v>1879.055555555556</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2215,7 +2215,7 @@
         <v>36316</v>
       </c>
       <c r="H17" t="n">
-        <v>12105.33333333333</v>
+        <v>2421.066666666667</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2241,7 +2241,7 @@
         <v>31942.2</v>
       </c>
       <c r="H18" t="n">
-        <v>12285.46153846154</v>
+        <v>2457.092307692308</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2267,7 +2267,7 @@
         <v>4505.6</v>
       </c>
       <c r="H19" t="n">
-        <v>7509.333333333333</v>
+        <v>1501.866666666667</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2293,7 +2293,7 @@
         <v>6147.75</v>
       </c>
       <c r="H20" t="n">
-        <v>12295.5</v>
+        <v>3073.875</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2319,7 +2319,7 @@
         <v>7603.333333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>7603.333333333333</v>
+        <v>2534.444444444444</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2345,7 +2345,7 @@
         <v>4040</v>
       </c>
       <c r="H22" t="n">
-        <v>2020</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2397,7 +2397,7 @@
         <v>81640</v>
       </c>
       <c r="H24" t="n">
-        <v>6047.407407407408</v>
+        <v>3023.703703703704</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2423,7 +2423,7 @@
         <v>34770</v>
       </c>
       <c r="H25" t="n">
-        <v>4346.25</v>
+        <v>2173.125</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2449,7 +2449,7 @@
         <v>31250</v>
       </c>
       <c r="H26" t="n">
-        <v>2500</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2475,7 +2475,7 @@
         <v>17000</v>
       </c>
       <c r="H27" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:8">
